--- a/plantuml2/uploads/sample.xlsx
+++ b/plantuml2/uploads/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9421309441\Desktop\PlantUml\plantuml2\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB51687-D286-466F-A1D6-B0B0096D9302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCE140-5578-4040-8F58-BA677D12484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83796346-63BD-446A-BF9F-08CBA64DFF58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -74,166 +74,94 @@
     <t>Verify Request ID syncs with SAP</t>
   </si>
   <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Mandatory fields validation</t>
+  </si>
+  <si>
+    <t>User skips mandatory fields</t>
+  </si>
+  <si>
+    <t>1. Try submitting form without required data</t>
+  </si>
+  <si>
+    <t>System shows error for missing fields Submission blocked</t>
+  </si>
+  <si>
+    <t>Validation should match SAP data requirements</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Duplicate submission handling</t>
+  </si>
+  <si>
+    <t>User submits same request twice</t>
+  </si>
+  <si>
+    <t>1. Submit request 2. Resubmit same request</t>
+  </si>
+  <si>
+    <t>System prevents duplicate OR assigns unique IDs</t>
+  </si>
+  <si>
+    <t>Depends on business rule</t>
+  </si>
+  <si>
+    <t>Status update sync</t>
+  </si>
+  <si>
+    <t>Request status changes in SAP</t>
+  </si>
+  <si>
+    <t>1. Update status in SAP (e.g., Fulfilled) 2. Check portal</t>
+  </si>
+  <si>
+    <t>Frontend shows updated status</t>
+  </si>
+  <si>
+    <t>Verify synchronization frequency</t>
+  </si>
+  <si>
+    <t>End-to-End fulfillment</t>
+  </si>
+  <si>
+    <t>Request fully processed</t>
+  </si>
+  <si>
+    <t>1. Submit request 2. Process in SAP 3. Complete fulfillment</t>
+  </si>
+  <si>
+    <t>User notified of completion SAP shows status "Closed/Completed"</t>
+  </si>
+  <si>
+    <t>Notification to user must be sent</t>
+  </si>
+  <si>
+    <t>Reporting &amp; Audit trail</t>
+  </si>
+  <si>
+    <t>Request completed</t>
+  </si>
+  <si>
+    <t>1. Generate report in SAP 2. Compare with frontend logs</t>
+  </si>
+  <si>
+    <t>Records consistent in both systems</t>
+  </si>
+  <si>
+    <t>Check audit trail for compliance</t>
+  </si>
+  <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>Request reaches SAP backend</t>
-  </si>
-  <si>
-    <t>Request submitted from portal</t>
-  </si>
-  <si>
-    <t>1. Submit request digitally 2. Check SAP transaction log</t>
-  </si>
-  <si>
-    <t>Request is available in SAP backend Status = "New"</t>
-  </si>
-  <si>
-    <t>Ensure mapping between frontend and SAP is correct</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>Mandatory fields validation</t>
-  </si>
-  <si>
-    <t>User skips mandatory fields</t>
-  </si>
-  <si>
-    <t>1. Try submitting form without required data</t>
-  </si>
-  <si>
-    <t>System shows error for missing fields Submission blocked</t>
-  </si>
-  <si>
-    <t>Validation should match SAP data requirements</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Duplicate submission handling</t>
-  </si>
-  <si>
-    <t>User submits same request twice</t>
-  </si>
-  <si>
-    <t>1. Submit request 2. Resubmit same request</t>
-  </si>
-  <si>
-    <t>System prevents duplicate OR assigns unique IDs</t>
-  </si>
-  <si>
-    <t>Depends on business rule</t>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
-    <t>SAP order creation</t>
-  </si>
-  <si>
-    <t>Request received in SAP</t>
-  </si>
-  <si>
-    <t>1. Open SAP backend 2. Check for order creation</t>
-  </si>
-  <si>
-    <t>SAP Sales/Service order created with correct details</t>
-  </si>
-  <si>
-    <t>Verify data mapping</t>
-  </si>
-  <si>
     <t>TC006</t>
-  </si>
-  <si>
-    <t>Workflow approval</t>
-  </si>
-  <si>
-    <t>Request requires approval in SAP</t>
-  </si>
-  <si>
-    <t>1. Manager logs into SAP 2. Approves request</t>
-  </si>
-  <si>
-    <t>Status changes to "Approved"</t>
-  </si>
-  <si>
-    <t>Approval reflected in frontend portal</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>Error handling in SAP integration</t>
-  </si>
-  <si>
-    <t>Backend connectivity issue</t>
-  </si>
-  <si>
-    <t>1. Submit request during SAP downtime</t>
-  </si>
-  <si>
-    <t>Error message displayed Request retried/queued</t>
-  </si>
-  <si>
-    <t>Ensure retry mechanism/logging</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>Status update sync</t>
-  </si>
-  <si>
-    <t>Request status changes in SAP</t>
-  </si>
-  <si>
-    <t>1. Update status in SAP (e.g., Fulfilled) 2. Check portal</t>
-  </si>
-  <si>
-    <t>Frontend shows updated status</t>
-  </si>
-  <si>
-    <t>Verify synchronization frequency</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>End-to-End fulfillment</t>
-  </si>
-  <si>
-    <t>Request fully processed</t>
-  </si>
-  <si>
-    <t>1. Submit request 2. Process in SAP 3. Complete fulfillment</t>
-  </si>
-  <si>
-    <t>User notified of completion SAP shows status "Closed/Completed"</t>
-  </si>
-  <si>
-    <t>Notification to user must be sent</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
-    <t>Reporting &amp; Audit trail</t>
-  </si>
-  <si>
-    <t>Request completed</t>
-  </si>
-  <si>
-    <t>1. Generate report in SAP 2. Compare with frontend logs</t>
-  </si>
-  <si>
-    <t>Records consistent in both systems</t>
-  </si>
-  <si>
-    <t>Check audit trail for compliance</t>
   </si>
 </sst>
 </file>
@@ -626,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5E5862-8992-4490-BA8C-4D634BA478D3}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +612,7 @@
     </row>
     <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -704,7 +632,7 @@
     </row>
     <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -722,144 +650,64 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
